--- a/example_files/xlsx/1_threshold_application/output/thresholds.xlsx
+++ b/example_files/xlsx/1_threshold_application/output/thresholds.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.47</v>
+        <v>9.058</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.502000000000001</v>
+        <v>10.5028</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.3245</v>
+        <v>7.454300000000001</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.18</v>
+        <v>10.052</v>
       </c>
     </row>
   </sheetData>
